--- a/Code/Results/Cases/Case_1_91/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_91/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9975098400125685</v>
+        <v>1.034966441954001</v>
       </c>
       <c r="D2">
-        <v>1.050598969000826</v>
+        <v>1.057173074317487</v>
       </c>
       <c r="E2">
-        <v>1.018754354977066</v>
+        <v>1.045865765346316</v>
       </c>
       <c r="F2">
-        <v>1.040701898014229</v>
+        <v>1.061112509032066</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.063251674977301</v>
+        <v>1.045160578730297</v>
       </c>
       <c r="J2">
-        <v>1.019765287294445</v>
+        <v>1.040082795201068</v>
       </c>
       <c r="K2">
-        <v>1.061395670486726</v>
+        <v>1.059908770096956</v>
       </c>
       <c r="L2">
-        <v>1.029958451531515</v>
+        <v>1.048632805547242</v>
       </c>
       <c r="M2">
-        <v>1.051621883007523</v>
+        <v>1.063837454410509</v>
       </c>
       <c r="N2">
-        <v>1.021213470971117</v>
+        <v>1.041559832069417</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.002637867844024</v>
+        <v>1.036047559176088</v>
       </c>
       <c r="D3">
-        <v>1.0542560200487</v>
+        <v>1.057887188232904</v>
       </c>
       <c r="E3">
-        <v>1.022964589057759</v>
+        <v>1.046786349117663</v>
       </c>
       <c r="F3">
-        <v>1.04506192771197</v>
+        <v>1.06202428436622</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.064740748390752</v>
+        <v>1.045353321118017</v>
       </c>
       <c r="J3">
-        <v>1.023056879320804</v>
+        <v>1.040806599357579</v>
       </c>
       <c r="K3">
-        <v>1.064238741379747</v>
+        <v>1.060436921429535</v>
       </c>
       <c r="L3">
-        <v>1.033311829377907</v>
+        <v>1.04936463253108</v>
       </c>
       <c r="M3">
-        <v>1.055148956595451</v>
+        <v>1.064563541913984</v>
       </c>
       <c r="N3">
-        <v>1.024509737435704</v>
+        <v>1.042284664110852</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.005882229364035</v>
+        <v>1.036747286081158</v>
       </c>
       <c r="D4">
-        <v>1.056560971704583</v>
+        <v>1.058347638112024</v>
       </c>
       <c r="E4">
-        <v>1.025631401664171</v>
+        <v>1.047382086634578</v>
       </c>
       <c r="F4">
-        <v>1.047816538855048</v>
+        <v>1.062613325496037</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.065663717037828</v>
+        <v>1.045475615375315</v>
       </c>
       <c r="J4">
-        <v>1.025136654656832</v>
+        <v>1.04127456651464</v>
       </c>
       <c r="K4">
-        <v>1.066021513979153</v>
+        <v>1.060776371286526</v>
       </c>
       <c r="L4">
-        <v>1.035430015433127</v>
+        <v>1.049837603927576</v>
       </c>
       <c r="M4">
-        <v>1.057370180339047</v>
+        <v>1.065031799895301</v>
       </c>
       <c r="N4">
-        <v>1.026592466291262</v>
+        <v>1.042753295834953</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.007229201335839</v>
+        <v>1.037041492583567</v>
       </c>
       <c r="D5">
-        <v>1.05751569917645</v>
+        <v>1.058540819702333</v>
       </c>
       <c r="E5">
-        <v>1.026739271642656</v>
+        <v>1.047632547997745</v>
       </c>
       <c r="F5">
-        <v>1.048959157638281</v>
+        <v>1.062860732713861</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.066042235990348</v>
+        <v>1.045526447036241</v>
       </c>
       <c r="J5">
-        <v>1.025999428482297</v>
+        <v>1.041471208057541</v>
       </c>
       <c r="K5">
-        <v>1.06675773487442</v>
+        <v>1.06091852433025</v>
       </c>
       <c r="L5">
-        <v>1.036308555936366</v>
+        <v>1.050036304227525</v>
       </c>
       <c r="M5">
-        <v>1.058289820641258</v>
+        <v>1.065228278948997</v>
       </c>
       <c r="N5">
-        <v>1.027456465354521</v>
+        <v>1.0429502166314</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.007454389448829</v>
+        <v>1.037090893577825</v>
       </c>
       <c r="D6">
-        <v>1.057675177018369</v>
+        <v>1.058573232739654</v>
       </c>
       <c r="E6">
-        <v>1.02692452459618</v>
+        <v>1.047674602324521</v>
       </c>
       <c r="F6">
-        <v>1.049150118969131</v>
+        <v>1.062902260211291</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.066105240040482</v>
+        <v>1.045534947811607</v>
       </c>
       <c r="J6">
-        <v>1.026143625989214</v>
+        <v>1.041504219643683</v>
       </c>
       <c r="K6">
-        <v>1.066880582342205</v>
+        <v>1.060942360065759</v>
       </c>
       <c r="L6">
-        <v>1.036455378229513</v>
+        <v>1.050069658840645</v>
       </c>
       <c r="M6">
-        <v>1.058443414373307</v>
+        <v>1.065261246534907</v>
       </c>
       <c r="N6">
-        <v>1.027600867638438</v>
+        <v>1.042983275097781</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.005900293386323</v>
+        <v>1.036751217120297</v>
       </c>
       <c r="D7">
-        <v>1.056573784360036</v>
+        <v>1.058350220954221</v>
       </c>
       <c r="E7">
-        <v>1.025646256523424</v>
+        <v>1.047385433260102</v>
       </c>
       <c r="F7">
-        <v>1.047831866492833</v>
+        <v>1.06261663225145</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.065668811869657</v>
+        <v>1.04547629687381</v>
       </c>
       <c r="J7">
-        <v>1.025148227967005</v>
+        <v>1.041277194409834</v>
       </c>
       <c r="K7">
-        <v>1.066031403024425</v>
+        <v>1.060778272911746</v>
       </c>
       <c r="L7">
-        <v>1.035441800923203</v>
+        <v>1.049840259509215</v>
       </c>
       <c r="M7">
-        <v>1.057382523690057</v>
+        <v>1.065034426739059</v>
       </c>
       <c r="N7">
-        <v>1.026604056036864</v>
+        <v>1.04275592746206</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9992586081884612</v>
+        <v>1.035331775131066</v>
       </c>
       <c r="D8">
-        <v>1.051847865274519</v>
+        <v>1.057414749030952</v>
       </c>
       <c r="E8">
-        <v>1.020189440416769</v>
+        <v>1.046176868500749</v>
       </c>
       <c r="F8">
-        <v>1.042189512738364</v>
+        <v>1.061420841500314</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.063763445489958</v>
+        <v>1.045226218145557</v>
       </c>
       <c r="J8">
-        <v>1.020888338525584</v>
+        <v>1.040327487250354</v>
       </c>
       <c r="K8">
-        <v>1.062368502384274</v>
+        <v>1.060087736698403</v>
       </c>
       <c r="L8">
-        <v>1.031102704893987</v>
+        <v>1.048880247538046</v>
       </c>
       <c r="M8">
-        <v>1.052826788646708</v>
+        <v>1.064083163436923</v>
       </c>
       <c r="N8">
-        <v>1.022338117063819</v>
+        <v>1.04180487160948</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9869554376263988</v>
+        <v>1.032831843166111</v>
       </c>
       <c r="D9">
-        <v>1.04302944375319</v>
+        <v>1.055753908218551</v>
       </c>
       <c r="E9">
-        <v>1.010109287609899</v>
+        <v>1.044047696218227</v>
       </c>
       <c r="F9">
-        <v>1.031711342749721</v>
+        <v>1.0593065603271</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.060085003590188</v>
+        <v>1.044767024134494</v>
       </c>
       <c r="J9">
-        <v>1.012977394199947</v>
+        <v>1.038651063262285</v>
       </c>
       <c r="K9">
-        <v>1.055460948727647</v>
+        <v>1.058853364707214</v>
       </c>
       <c r="L9">
-        <v>1.023040450630525</v>
+        <v>1.047184242946442</v>
       </c>
       <c r="M9">
-        <v>1.044310055251237</v>
+        <v>1.062394937657391</v>
       </c>
       <c r="N9">
-        <v>1.014415938289842</v>
+        <v>1.040126066907058</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9782983454761803</v>
+        <v>1.031166083284975</v>
       </c>
       <c r="D10">
-        <v>1.036789787510249</v>
+        <v>1.054638409231926</v>
       </c>
       <c r="E10">
-        <v>1.003040407895485</v>
+        <v>1.042628599470722</v>
       </c>
       <c r="F10">
-        <v>1.02432758528696</v>
+        <v>1.057892289023352</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.057401387002513</v>
+        <v>1.044448484011845</v>
       </c>
       <c r="J10">
-        <v>1.007400253881929</v>
+        <v>1.03753149704367</v>
       </c>
       <c r="K10">
-        <v>1.050525111198413</v>
+        <v>1.05801871051253</v>
       </c>
       <c r="L10">
-        <v>1.017354982973626</v>
+        <v>1.046050680821997</v>
       </c>
       <c r="M10">
-        <v>1.038271063968127</v>
+        <v>1.061261450250435</v>
       </c>
       <c r="N10">
-        <v>1.008830877792865</v>
+        <v>1.039004910775998</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9744290310420832</v>
+        <v>1.030444990325487</v>
       </c>
       <c r="D11">
-        <v>1.033994846978511</v>
+        <v>1.054153439407956</v>
       </c>
       <c r="E11">
-        <v>0.9998878272966077</v>
+        <v>1.042014204282464</v>
       </c>
       <c r="F11">
-        <v>1.021026484639203</v>
+        <v>1.057278777221265</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.056180654625095</v>
+        <v>1.044307617433984</v>
       </c>
       <c r="J11">
-        <v>1.004905689310785</v>
+        <v>1.037046251582086</v>
       </c>
       <c r="K11">
-        <v>1.048302935952151</v>
+        <v>1.057654524495131</v>
       </c>
       <c r="L11">
-        <v>1.014811859340538</v>
+        <v>1.045559154443852</v>
       </c>
       <c r="M11">
-        <v>1.035562475095942</v>
+        <v>1.060768748753421</v>
       </c>
       <c r="N11">
-        <v>1.0063327706539</v>
+        <v>1.0385189762102</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9729724600512805</v>
+        <v>1.030177172607524</v>
       </c>
       <c r="D12">
-        <v>1.032941988327957</v>
+        <v>1.053973007979798</v>
       </c>
       <c r="E12">
-        <v>0.9987022061003158</v>
+        <v>1.041786003412073</v>
       </c>
       <c r="F12">
-        <v>1.019783827993498</v>
+        <v>1.057050723581238</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.055718042416367</v>
+        <v>1.044254852722707</v>
       </c>
       <c r="J12">
-        <v>1.00396641582804</v>
+        <v>1.036865939843967</v>
       </c>
       <c r="K12">
-        <v>1.047464161837271</v>
+        <v>1.057518833566545</v>
       </c>
       <c r="L12">
-        <v>1.01385431210095</v>
+        <v>1.045376476786665</v>
       </c>
       <c r="M12">
-        <v>1.034541568992152</v>
+        <v>1.060585453560463</v>
       </c>
       <c r="N12">
-        <v>1.005392163295074</v>
+        <v>1.038338408408731</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9732857947555522</v>
+        <v>1.030234619144652</v>
       </c>
       <c r="D13">
-        <v>1.033168506860422</v>
+        <v>1.054011724331234</v>
       </c>
       <c r="E13">
-        <v>0.9989572012488191</v>
+        <v>1.041834952685606</v>
       </c>
       <c r="F13">
-        <v>1.020051142648782</v>
+        <v>1.057099649454703</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.05581769567972</v>
+        <v>1.044266190860664</v>
       </c>
       <c r="J13">
-        <v>1.00416847921143</v>
+        <v>1.036904620489722</v>
       </c>
       <c r="K13">
-        <v>1.047644696432977</v>
+        <v>1.057547958542862</v>
       </c>
       <c r="L13">
-        <v>1.014060305777789</v>
+        <v>1.045415666415464</v>
       </c>
       <c r="M13">
-        <v>1.034761239849095</v>
+        <v>1.060624783839661</v>
       </c>
       <c r="N13">
-        <v>1.005594513631644</v>
+        <v>1.03837714398544</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9743090321396536</v>
+        <v>1.030422851854932</v>
       </c>
       <c r="D14">
-        <v>1.033908121346117</v>
+        <v>1.054138530840935</v>
       </c>
       <c r="E14">
-        <v>0.9997901266294514</v>
+        <v>1.04199534086288</v>
       </c>
       <c r="F14">
-        <v>1.020924107755832</v>
+        <v>1.057259929660373</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.056142604350213</v>
+        <v>1.044303264871032</v>
       </c>
       <c r="J14">
-        <v>1.004828311726373</v>
+        <v>1.037031348384762</v>
       </c>
       <c r="K14">
-        <v>1.048233878788057</v>
+        <v>1.057643316722215</v>
       </c>
       <c r="L14">
-        <v>1.014732975998901</v>
+        <v>1.045544056348866</v>
       </c>
       <c r="M14">
-        <v>1.035478393423351</v>
+        <v>1.060753603303911</v>
       </c>
       <c r="N14">
-        <v>1.006255283184443</v>
+        <v>1.038504051848627</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9749368828569949</v>
+        <v>1.030538831975766</v>
       </c>
       <c r="D15">
-        <v>1.034361853313674</v>
+        <v>1.054216621851712</v>
       </c>
       <c r="E15">
-        <v>1.000301357072336</v>
+        <v>1.042094163027342</v>
       </c>
       <c r="F15">
-        <v>1.021459759189166</v>
+        <v>1.057358661337916</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.056341563970995</v>
+        <v>1.044326049027314</v>
       </c>
       <c r="J15">
-        <v>1.005233153457031</v>
+        <v>1.037109420352679</v>
       </c>
       <c r="K15">
-        <v>1.048595104483915</v>
+        <v>1.057702014943353</v>
       </c>
       <c r="L15">
-        <v>1.015145696464135</v>
+        <v>1.045623147999946</v>
       </c>
       <c r="M15">
-        <v>1.035918268951537</v>
+        <v>1.060832935623737</v>
       </c>
       <c r="N15">
-        <v>1.006660699836795</v>
+        <v>1.038582234687693</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9785524955346355</v>
+        <v>1.031213943850297</v>
       </c>
       <c r="D16">
-        <v>1.036973257736037</v>
+        <v>1.054670554065548</v>
       </c>
       <c r="E16">
-        <v>1.003247632396645</v>
+        <v>1.042669376638657</v>
       </c>
       <c r="F16">
-        <v>1.024544406751666</v>
+        <v>1.057932982179216</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.057481136193811</v>
+        <v>1.044457771043363</v>
       </c>
       <c r="J16">
-        <v>1.007564072314877</v>
+        <v>1.037563691373453</v>
       </c>
       <c r="K16">
-        <v>1.050670750217629</v>
+        <v>1.058042821947243</v>
       </c>
       <c r="L16">
-        <v>1.017521990239951</v>
+        <v>1.046083287367964</v>
       </c>
       <c r="M16">
-        <v>1.038448788554161</v>
+        <v>1.061294109376476</v>
       </c>
       <c r="N16">
-        <v>1.008994928866779</v>
+        <v>1.039037150825422</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9807873358999731</v>
+        <v>1.031637474733593</v>
       </c>
       <c r="D17">
-        <v>1.038585911120252</v>
+        <v>1.054954772114247</v>
       </c>
       <c r="E17">
-        <v>1.005070631743675</v>
+        <v>1.043030215451357</v>
       </c>
       <c r="F17">
-        <v>1.026450916600909</v>
+        <v>1.058292938297566</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.058179998186539</v>
+        <v>1.044539611000432</v>
       </c>
       <c r="J17">
-        <v>1.009004389127457</v>
+        <v>1.037848518871201</v>
       </c>
       <c r="K17">
-        <v>1.051949602043282</v>
+        <v>1.058255858825081</v>
       </c>
       <c r="L17">
-        <v>1.018990334726046</v>
+        <v>1.046371737032035</v>
       </c>
       <c r="M17">
-        <v>1.040010533236249</v>
+        <v>1.061582884868784</v>
       </c>
       <c r="N17">
-        <v>1.010437291094439</v>
+        <v>1.039322382810887</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9820793170966975</v>
+        <v>1.031884531700068</v>
       </c>
       <c r="D18">
-        <v>1.039517609260322</v>
+        <v>1.055120363337009</v>
       </c>
       <c r="E18">
-        <v>1.006125167605911</v>
+        <v>1.043240694616131</v>
       </c>
       <c r="F18">
-        <v>1.027552990707291</v>
+        <v>1.058502786214585</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.058581993654485</v>
+        <v>1.04458706348393</v>
       </c>
       <c r="J18">
-        <v>1.009836870335572</v>
+        <v>1.038014608977677</v>
       </c>
       <c r="K18">
-        <v>1.052687383642144</v>
+        <v>1.058379851800468</v>
       </c>
       <c r="L18">
-        <v>1.019839003688781</v>
+        <v>1.046539918586866</v>
       </c>
       <c r="M18">
-        <v>1.040912488368592</v>
+        <v>1.061751139946247</v>
       </c>
       <c r="N18">
-        <v>1.011270954521357</v>
+        <v>1.039488708784366</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.98251792264704</v>
+        <v>1.031968774906898</v>
       </c>
       <c r="D19">
-        <v>1.039833799094498</v>
+        <v>1.055176793681286</v>
       </c>
       <c r="E19">
-        <v>1.006483270596855</v>
+        <v>1.043312463915619</v>
       </c>
       <c r="F19">
-        <v>1.027927105366538</v>
+        <v>1.058574320524406</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.058718117658367</v>
+        <v>1.04460319547008</v>
       </c>
       <c r="J19">
-        <v>1.010119451385974</v>
+        <v>1.038071233785849</v>
       </c>
       <c r="K19">
-        <v>1.052937583002916</v>
+        <v>1.058422084743548</v>
       </c>
       <c r="L19">
-        <v>1.020127076829299</v>
+        <v>1.046597252904824</v>
       </c>
       <c r="M19">
-        <v>1.041218529509753</v>
+        <v>1.061808479557204</v>
       </c>
       <c r="N19">
-        <v>1.011553936869263</v>
+        <v>1.03954541400626</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9805487630575307</v>
+        <v>1.031592031961232</v>
       </c>
       <c r="D20">
-        <v>1.03841381779197</v>
+        <v>1.054924297681652</v>
       </c>
       <c r="E20">
-        <v>1.004875956050187</v>
+        <v>1.042991500032342</v>
       </c>
       <c r="F20">
-        <v>1.026247402523952</v>
+        <v>1.058254329619558</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.058105602660773</v>
+        <v>1.044530859654327</v>
       </c>
       <c r="J20">
-        <v>1.008850651100645</v>
+        <v>1.037817964225739</v>
       </c>
       <c r="K20">
-        <v>1.051813240632198</v>
+        <v>1.05823302968044</v>
       </c>
       <c r="L20">
-        <v>1.018833606099036</v>
+        <v>1.046340795963855</v>
       </c>
       <c r="M20">
-        <v>1.039843907264833</v>
+        <v>1.061551920892624</v>
       </c>
       <c r="N20">
-        <v>1.010283334741995</v>
+        <v>1.039291784774324</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9740082580980703</v>
+        <v>1.030367421236108</v>
       </c>
       <c r="D21">
-        <v>1.033690734834933</v>
+        <v>1.054101197537222</v>
       </c>
       <c r="E21">
-        <v>0.9995452612769011</v>
+        <v>1.041948110184311</v>
       </c>
       <c r="F21">
-        <v>1.020667503608316</v>
+        <v>1.057212735768086</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.056047183214506</v>
+        <v>1.044292359656793</v>
       </c>
       <c r="J21">
-        <v>1.004634363624494</v>
+        <v>1.036994032109563</v>
       </c>
       <c r="K21">
-        <v>1.048060753112721</v>
+        <v>1.057615247592216</v>
       </c>
       <c r="L21">
-        <v>1.01453525394732</v>
+        <v>1.045506251551317</v>
       </c>
       <c r="M21">
-        <v>1.035267624824728</v>
+        <v>1.060715677015061</v>
       </c>
       <c r="N21">
-        <v>1.006061059654013</v>
+        <v>1.038466682580036</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.96978344640054</v>
+        <v>1.029597623411407</v>
       </c>
       <c r="D22">
-        <v>1.03063574548928</v>
+        <v>1.053581992682888</v>
       </c>
       <c r="E22">
-        <v>0.9961086354375086</v>
+        <v>1.041292164147916</v>
       </c>
       <c r="F22">
-        <v>1.017063361550126</v>
+        <v>1.056556872463546</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.054699674446913</v>
+        <v>1.044139856396636</v>
       </c>
       <c r="J22">
-        <v>1.001909647020498</v>
+        <v>1.036475588479913</v>
       </c>
       <c r="K22">
-        <v>1.045623789492141</v>
+        <v>1.057224416911758</v>
       </c>
       <c r="L22">
-        <v>1.011757577194455</v>
+        <v>1.044980945273772</v>
       </c>
       <c r="M22">
-        <v>1.032304202944676</v>
+        <v>1.060188254923521</v>
       </c>
       <c r="N22">
-        <v>1.00333247363991</v>
+        <v>1.037947502700967</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9720341926860707</v>
+        <v>1.030005692483841</v>
       </c>
       <c r="D23">
-        <v>1.032263597102005</v>
+        <v>1.053857392738006</v>
       </c>
       <c r="E23">
-        <v>0.9979388100178461</v>
+        <v>1.041639886361202</v>
       </c>
       <c r="F23">
-        <v>1.018983380089454</v>
+        <v>1.056904649916329</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.055419193504807</v>
+        <v>1.044220942665708</v>
       </c>
       <c r="J23">
-        <v>1.003361319029359</v>
+        <v>1.036750463621228</v>
       </c>
       <c r="K23">
-        <v>1.046923241259488</v>
+        <v>1.057431831463246</v>
       </c>
       <c r="L23">
-        <v>1.013237449259515</v>
+        <v>1.045259476392976</v>
       </c>
       <c r="M23">
-        <v>1.033883597452214</v>
+        <v>1.060468006827774</v>
       </c>
       <c r="N23">
-        <v>1.004786207189533</v>
+        <v>1.038222768196511</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.98065659950204</v>
+        <v>1.031612565536357</v>
       </c>
       <c r="D24">
-        <v>1.038491606920744</v>
+        <v>1.054938068347954</v>
       </c>
       <c r="E24">
-        <v>1.004963948715341</v>
+        <v>1.043008993838915</v>
       </c>
       <c r="F24">
-        <v>1.026339392493137</v>
+        <v>1.058271775554083</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.058139236196115</v>
+        <v>1.044534814886503</v>
       </c>
       <c r="J24">
-        <v>1.008920142227377</v>
+        <v>1.037831770693574</v>
       </c>
       <c r="K24">
-        <v>1.051874881629337</v>
+        <v>1.058243346015743</v>
       </c>
       <c r="L24">
-        <v>1.018904449045587</v>
+        <v>1.046354777105322</v>
       </c>
       <c r="M24">
-        <v>1.039919226078041</v>
+        <v>1.061565912745285</v>
       </c>
       <c r="N24">
-        <v>1.010352924554097</v>
+        <v>1.039305610848927</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9902122556302496</v>
+        <v>1.033477982411851</v>
       </c>
       <c r="D25">
-        <v>1.045370402252021</v>
+        <v>1.056184738979002</v>
       </c>
       <c r="E25">
-        <v>1.012773887333571</v>
+        <v>1.044598078726627</v>
       </c>
       <c r="F25">
-        <v>1.034487434332648</v>
+        <v>1.059853993820909</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.061075529508364</v>
+        <v>1.044887927379103</v>
       </c>
       <c r="J25">
-        <v>1.015073566641881</v>
+        <v>1.039084803635248</v>
       </c>
       <c r="K25">
-        <v>1.057302983199908</v>
+        <v>1.059174553364572</v>
       </c>
       <c r="L25">
-        <v>1.025177089442707</v>
+        <v>1.047623212452533</v>
       </c>
       <c r="M25">
-        <v>1.046572968358815</v>
+        <v>1.062832798737458</v>
       </c>
       <c r="N25">
-        <v>1.016515087537077</v>
+        <v>1.040560423241103</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_91/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_91/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.034966441954001</v>
+        <v>0.9975098400125679</v>
       </c>
       <c r="D2">
-        <v>1.057173074317487</v>
+        <v>1.050598969000825</v>
       </c>
       <c r="E2">
-        <v>1.045865765346316</v>
+        <v>1.018754354977066</v>
       </c>
       <c r="F2">
-        <v>1.061112509032066</v>
+        <v>1.040701898014228</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045160578730297</v>
+        <v>1.063251674977301</v>
       </c>
       <c r="J2">
-        <v>1.040082795201068</v>
+        <v>1.019765287294444</v>
       </c>
       <c r="K2">
-        <v>1.059908770096956</v>
+        <v>1.061395670486725</v>
       </c>
       <c r="L2">
-        <v>1.048632805547242</v>
+        <v>1.029958451531514</v>
       </c>
       <c r="M2">
-        <v>1.063837454410509</v>
+        <v>1.051621883007522</v>
       </c>
       <c r="N2">
-        <v>1.041559832069417</v>
+        <v>1.021213470971116</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036047559176088</v>
+        <v>1.002637867844024</v>
       </c>
       <c r="D3">
-        <v>1.057887188232904</v>
+        <v>1.0542560200487</v>
       </c>
       <c r="E3">
-        <v>1.046786349117663</v>
+        <v>1.022964589057759</v>
       </c>
       <c r="F3">
-        <v>1.06202428436622</v>
+        <v>1.04506192771197</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045353321118017</v>
+        <v>1.064740748390752</v>
       </c>
       <c r="J3">
-        <v>1.040806599357579</v>
+        <v>1.023056879320804</v>
       </c>
       <c r="K3">
-        <v>1.060436921429535</v>
+        <v>1.064238741379748</v>
       </c>
       <c r="L3">
-        <v>1.04936463253108</v>
+        <v>1.033311829377907</v>
       </c>
       <c r="M3">
-        <v>1.064563541913984</v>
+        <v>1.055148956595451</v>
       </c>
       <c r="N3">
-        <v>1.042284664110852</v>
+        <v>1.024509737435703</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036747286081158</v>
+        <v>1.005882229364035</v>
       </c>
       <c r="D4">
-        <v>1.058347638112024</v>
+        <v>1.056560971704582</v>
       </c>
       <c r="E4">
-        <v>1.047382086634578</v>
+        <v>1.025631401664171</v>
       </c>
       <c r="F4">
-        <v>1.062613325496037</v>
+        <v>1.047816538855048</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045475615375315</v>
+        <v>1.065663717037828</v>
       </c>
       <c r="J4">
-        <v>1.04127456651464</v>
+        <v>1.025136654656832</v>
       </c>
       <c r="K4">
-        <v>1.060776371286526</v>
+        <v>1.066021513979153</v>
       </c>
       <c r="L4">
-        <v>1.049837603927576</v>
+        <v>1.035430015433127</v>
       </c>
       <c r="M4">
-        <v>1.065031799895301</v>
+        <v>1.057370180339047</v>
       </c>
       <c r="N4">
-        <v>1.042753295834953</v>
+        <v>1.026592466291262</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037041492583567</v>
+        <v>1.007229201335839</v>
       </c>
       <c r="D5">
-        <v>1.058540819702333</v>
+        <v>1.05751569917645</v>
       </c>
       <c r="E5">
-        <v>1.047632547997745</v>
+        <v>1.026739271642656</v>
       </c>
       <c r="F5">
-        <v>1.062860732713861</v>
+        <v>1.048959157638281</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045526447036241</v>
+        <v>1.066042235990348</v>
       </c>
       <c r="J5">
-        <v>1.041471208057541</v>
+        <v>1.025999428482296</v>
       </c>
       <c r="K5">
-        <v>1.06091852433025</v>
+        <v>1.06675773487442</v>
       </c>
       <c r="L5">
-        <v>1.050036304227525</v>
+        <v>1.036308555936366</v>
       </c>
       <c r="M5">
-        <v>1.065228278948997</v>
+        <v>1.058289820641258</v>
       </c>
       <c r="N5">
-        <v>1.0429502166314</v>
+        <v>1.027456465354521</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037090893577825</v>
+        <v>1.007454389448829</v>
       </c>
       <c r="D6">
-        <v>1.058573232739654</v>
+        <v>1.057675177018369</v>
       </c>
       <c r="E6">
-        <v>1.047674602324521</v>
+        <v>1.02692452459618</v>
       </c>
       <c r="F6">
-        <v>1.062902260211291</v>
+        <v>1.049150118969131</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045534947811607</v>
+        <v>1.066105240040482</v>
       </c>
       <c r="J6">
-        <v>1.041504219643683</v>
+        <v>1.026143625989215</v>
       </c>
       <c r="K6">
-        <v>1.060942360065759</v>
+        <v>1.066880582342206</v>
       </c>
       <c r="L6">
-        <v>1.050069658840645</v>
+        <v>1.036455378229513</v>
       </c>
       <c r="M6">
-        <v>1.065261246534907</v>
+        <v>1.058443414373307</v>
       </c>
       <c r="N6">
-        <v>1.042983275097781</v>
+        <v>1.027600867638438</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036751217120297</v>
+        <v>1.005900293386322</v>
       </c>
       <c r="D7">
-        <v>1.058350220954221</v>
+        <v>1.056573784360036</v>
       </c>
       <c r="E7">
-        <v>1.047385433260102</v>
+        <v>1.025646256523424</v>
       </c>
       <c r="F7">
-        <v>1.06261663225145</v>
+        <v>1.047831866492833</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04547629687381</v>
+        <v>1.065668811869657</v>
       </c>
       <c r="J7">
-        <v>1.041277194409834</v>
+        <v>1.025148227967005</v>
       </c>
       <c r="K7">
-        <v>1.060778272911746</v>
+        <v>1.066031403024425</v>
       </c>
       <c r="L7">
-        <v>1.049840259509215</v>
+        <v>1.035441800923203</v>
       </c>
       <c r="M7">
-        <v>1.065034426739059</v>
+        <v>1.057382523690056</v>
       </c>
       <c r="N7">
-        <v>1.04275592746206</v>
+        <v>1.026604056036863</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035331775131066</v>
+        <v>0.9992586081884612</v>
       </c>
       <c r="D8">
-        <v>1.057414749030952</v>
+        <v>1.051847865274519</v>
       </c>
       <c r="E8">
-        <v>1.046176868500749</v>
+        <v>1.020189440416769</v>
       </c>
       <c r="F8">
-        <v>1.061420841500314</v>
+        <v>1.042189512738364</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045226218145557</v>
+        <v>1.063763445489958</v>
       </c>
       <c r="J8">
-        <v>1.040327487250354</v>
+        <v>1.020888338525584</v>
       </c>
       <c r="K8">
-        <v>1.060087736698403</v>
+        <v>1.062368502384274</v>
       </c>
       <c r="L8">
-        <v>1.048880247538046</v>
+        <v>1.031102704893987</v>
       </c>
       <c r="M8">
-        <v>1.064083163436923</v>
+        <v>1.052826788646707</v>
       </c>
       <c r="N8">
-        <v>1.04180487160948</v>
+        <v>1.02233811706382</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.032831843166111</v>
+        <v>0.9869554376263985</v>
       </c>
       <c r="D9">
-        <v>1.055753908218551</v>
+        <v>1.04302944375319</v>
       </c>
       <c r="E9">
-        <v>1.044047696218227</v>
+        <v>1.010109287609898</v>
       </c>
       <c r="F9">
-        <v>1.0593065603271</v>
+        <v>1.03171134274972</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044767024134494</v>
+        <v>1.060085003590187</v>
       </c>
       <c r="J9">
-        <v>1.038651063262285</v>
+        <v>1.012977394199947</v>
       </c>
       <c r="K9">
-        <v>1.058853364707214</v>
+        <v>1.055460948727647</v>
       </c>
       <c r="L9">
-        <v>1.047184242946442</v>
+        <v>1.023040450630524</v>
       </c>
       <c r="M9">
-        <v>1.062394937657391</v>
+        <v>1.044310055251236</v>
       </c>
       <c r="N9">
-        <v>1.040126066907058</v>
+        <v>1.014415938289842</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.031166083284975</v>
+        <v>0.9782983454761802</v>
       </c>
       <c r="D10">
-        <v>1.054638409231926</v>
+        <v>1.036789787510249</v>
       </c>
       <c r="E10">
-        <v>1.042628599470722</v>
+        <v>1.003040407895485</v>
       </c>
       <c r="F10">
-        <v>1.057892289023352</v>
+        <v>1.02432758528696</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044448484011845</v>
+        <v>1.057401387002513</v>
       </c>
       <c r="J10">
-        <v>1.03753149704367</v>
+        <v>1.007400253881929</v>
       </c>
       <c r="K10">
-        <v>1.05801871051253</v>
+        <v>1.050525111198414</v>
       </c>
       <c r="L10">
-        <v>1.046050680821997</v>
+        <v>1.017354982973626</v>
       </c>
       <c r="M10">
-        <v>1.061261450250435</v>
+        <v>1.038271063968127</v>
       </c>
       <c r="N10">
-        <v>1.039004910775998</v>
+        <v>1.008830877792865</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.030444990325487</v>
+        <v>0.9744290310420827</v>
       </c>
       <c r="D11">
-        <v>1.054153439407956</v>
+        <v>1.033994846978511</v>
       </c>
       <c r="E11">
-        <v>1.042014204282464</v>
+        <v>0.9998878272966072</v>
       </c>
       <c r="F11">
-        <v>1.057278777221265</v>
+        <v>1.021026484639203</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044307617433984</v>
+        <v>1.056180654625095</v>
       </c>
       <c r="J11">
-        <v>1.037046251582086</v>
+        <v>1.004905689310785</v>
       </c>
       <c r="K11">
-        <v>1.057654524495131</v>
+        <v>1.048302935952151</v>
       </c>
       <c r="L11">
-        <v>1.045559154443852</v>
+        <v>1.014811859340538</v>
       </c>
       <c r="M11">
-        <v>1.060768748753421</v>
+        <v>1.035562475095941</v>
       </c>
       <c r="N11">
-        <v>1.0385189762102</v>
+        <v>1.0063327706539</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.030177172607524</v>
+        <v>0.9729724600512808</v>
       </c>
       <c r="D12">
-        <v>1.053973007979798</v>
+        <v>1.032941988327957</v>
       </c>
       <c r="E12">
-        <v>1.041786003412073</v>
+        <v>0.9987022061003161</v>
       </c>
       <c r="F12">
-        <v>1.057050723581238</v>
+        <v>1.019783827993499</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044254852722707</v>
+        <v>1.055718042416368</v>
       </c>
       <c r="J12">
-        <v>1.036865939843967</v>
+        <v>1.003966415828041</v>
       </c>
       <c r="K12">
-        <v>1.057518833566545</v>
+        <v>1.047464161837271</v>
       </c>
       <c r="L12">
-        <v>1.045376476786665</v>
+        <v>1.01385431210095</v>
       </c>
       <c r="M12">
-        <v>1.060585453560463</v>
+        <v>1.034541568992153</v>
       </c>
       <c r="N12">
-        <v>1.038338408408731</v>
+        <v>1.005392163295074</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.030234619144652</v>
+        <v>0.9732857947555515</v>
       </c>
       <c r="D13">
-        <v>1.054011724331234</v>
+        <v>1.033168506860422</v>
       </c>
       <c r="E13">
-        <v>1.041834952685606</v>
+        <v>0.9989572012488183</v>
       </c>
       <c r="F13">
-        <v>1.057099649454703</v>
+        <v>1.020051142648782</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044266190860664</v>
+        <v>1.05581769567972</v>
       </c>
       <c r="J13">
-        <v>1.036904620489722</v>
+        <v>1.004168479211429</v>
       </c>
       <c r="K13">
-        <v>1.057547958542862</v>
+        <v>1.047644696432977</v>
       </c>
       <c r="L13">
-        <v>1.045415666415464</v>
+        <v>1.014060305777789</v>
       </c>
       <c r="M13">
-        <v>1.060624783839661</v>
+        <v>1.034761239849095</v>
       </c>
       <c r="N13">
-        <v>1.03837714398544</v>
+        <v>1.005594513631644</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.030422851854932</v>
+        <v>0.9743090321396536</v>
       </c>
       <c r="D14">
-        <v>1.054138530840935</v>
+        <v>1.033908121346117</v>
       </c>
       <c r="E14">
-        <v>1.04199534086288</v>
+        <v>0.9997901266294513</v>
       </c>
       <c r="F14">
-        <v>1.057259929660373</v>
+        <v>1.020924107755832</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044303264871032</v>
+        <v>1.056142604350214</v>
       </c>
       <c r="J14">
-        <v>1.037031348384762</v>
+        <v>1.004828311726373</v>
       </c>
       <c r="K14">
-        <v>1.057643316722215</v>
+        <v>1.048233878788056</v>
       </c>
       <c r="L14">
-        <v>1.045544056348866</v>
+        <v>1.014732975998902</v>
       </c>
       <c r="M14">
-        <v>1.060753603303911</v>
+        <v>1.035478393423351</v>
       </c>
       <c r="N14">
-        <v>1.038504051848627</v>
+        <v>1.006255283184443</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.030538831975766</v>
+        <v>0.9749368828569952</v>
       </c>
       <c r="D15">
-        <v>1.054216621851712</v>
+        <v>1.034361853313674</v>
       </c>
       <c r="E15">
-        <v>1.042094163027342</v>
+        <v>1.000301357072336</v>
       </c>
       <c r="F15">
-        <v>1.057358661337916</v>
+        <v>1.021459759189166</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044326049027314</v>
+        <v>1.056341563970996</v>
       </c>
       <c r="J15">
-        <v>1.037109420352679</v>
+        <v>1.005233153457031</v>
       </c>
       <c r="K15">
-        <v>1.057702014943353</v>
+        <v>1.048595104483916</v>
       </c>
       <c r="L15">
-        <v>1.045623147999946</v>
+        <v>1.015145696464135</v>
       </c>
       <c r="M15">
-        <v>1.060832935623737</v>
+        <v>1.035918268951537</v>
       </c>
       <c r="N15">
-        <v>1.038582234687693</v>
+        <v>1.006660699836795</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.031213943850297</v>
+        <v>0.9785524955346354</v>
       </c>
       <c r="D16">
-        <v>1.054670554065548</v>
+        <v>1.036973257736036</v>
       </c>
       <c r="E16">
-        <v>1.042669376638657</v>
+        <v>1.003247632396645</v>
       </c>
       <c r="F16">
-        <v>1.057932982179216</v>
+        <v>1.024544406751665</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044457771043363</v>
+        <v>1.057481136193811</v>
       </c>
       <c r="J16">
-        <v>1.037563691373453</v>
+        <v>1.007564072314877</v>
       </c>
       <c r="K16">
-        <v>1.058042821947243</v>
+        <v>1.050670750217628</v>
       </c>
       <c r="L16">
-        <v>1.046083287367964</v>
+        <v>1.017521990239951</v>
       </c>
       <c r="M16">
-        <v>1.061294109376476</v>
+        <v>1.03844878855416</v>
       </c>
       <c r="N16">
-        <v>1.039037150825422</v>
+        <v>1.008994928866779</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.031637474733593</v>
+        <v>0.9807873358999727</v>
       </c>
       <c r="D17">
-        <v>1.054954772114247</v>
+        <v>1.038585911120253</v>
       </c>
       <c r="E17">
-        <v>1.043030215451357</v>
+        <v>1.005070631743675</v>
       </c>
       <c r="F17">
-        <v>1.058292938297566</v>
+        <v>1.02645091660091</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044539611000432</v>
+        <v>1.058179998186539</v>
       </c>
       <c r="J17">
-        <v>1.037848518871201</v>
+        <v>1.009004389127457</v>
       </c>
       <c r="K17">
-        <v>1.058255858825081</v>
+        <v>1.051949602043282</v>
       </c>
       <c r="L17">
-        <v>1.046371737032035</v>
+        <v>1.018990334726046</v>
       </c>
       <c r="M17">
-        <v>1.061582884868784</v>
+        <v>1.040010533236249</v>
       </c>
       <c r="N17">
-        <v>1.039322382810887</v>
+        <v>1.010437291094439</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.031884531700068</v>
+        <v>0.9820793170966978</v>
       </c>
       <c r="D18">
-        <v>1.055120363337009</v>
+        <v>1.039517609260323</v>
       </c>
       <c r="E18">
-        <v>1.043240694616131</v>
+        <v>1.006125167605911</v>
       </c>
       <c r="F18">
-        <v>1.058502786214585</v>
+        <v>1.027552990707291</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04458706348393</v>
+        <v>1.058581993654486</v>
       </c>
       <c r="J18">
-        <v>1.038014608977677</v>
+        <v>1.009836870335573</v>
       </c>
       <c r="K18">
-        <v>1.058379851800468</v>
+        <v>1.052687383642144</v>
       </c>
       <c r="L18">
-        <v>1.046539918586866</v>
+        <v>1.019839003688781</v>
       </c>
       <c r="M18">
-        <v>1.061751139946247</v>
+        <v>1.040912488368592</v>
       </c>
       <c r="N18">
-        <v>1.039488708784366</v>
+        <v>1.011270954521357</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.031968774906898</v>
+        <v>0.9825179226470391</v>
       </c>
       <c r="D19">
-        <v>1.055176793681286</v>
+        <v>1.039833799094498</v>
       </c>
       <c r="E19">
-        <v>1.043312463915619</v>
+        <v>1.006483270596854</v>
       </c>
       <c r="F19">
-        <v>1.058574320524406</v>
+        <v>1.027927105366538</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04460319547008</v>
+        <v>1.058718117658366</v>
       </c>
       <c r="J19">
-        <v>1.038071233785849</v>
+        <v>1.010119451385973</v>
       </c>
       <c r="K19">
-        <v>1.058422084743548</v>
+        <v>1.052937583002916</v>
       </c>
       <c r="L19">
-        <v>1.046597252904824</v>
+        <v>1.020127076829298</v>
       </c>
       <c r="M19">
-        <v>1.061808479557204</v>
+        <v>1.041218529509753</v>
       </c>
       <c r="N19">
-        <v>1.03954541400626</v>
+        <v>1.011553936869262</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.031592031961232</v>
+        <v>0.9805487630575307</v>
       </c>
       <c r="D20">
-        <v>1.054924297681652</v>
+        <v>1.03841381779197</v>
       </c>
       <c r="E20">
-        <v>1.042991500032342</v>
+        <v>1.004875956050187</v>
       </c>
       <c r="F20">
-        <v>1.058254329619558</v>
+        <v>1.026247402523952</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044530859654327</v>
+        <v>1.058105602660772</v>
       </c>
       <c r="J20">
-        <v>1.037817964225739</v>
+        <v>1.008850651100645</v>
       </c>
       <c r="K20">
-        <v>1.05823302968044</v>
+        <v>1.051813240632197</v>
       </c>
       <c r="L20">
-        <v>1.046340795963855</v>
+        <v>1.018833606099036</v>
       </c>
       <c r="M20">
-        <v>1.061551920892624</v>
+        <v>1.039843907264833</v>
       </c>
       <c r="N20">
-        <v>1.039291784774324</v>
+        <v>1.010283334741995</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.030367421236108</v>
+        <v>0.9740082580980701</v>
       </c>
       <c r="D21">
-        <v>1.054101197537222</v>
+        <v>1.033690734834932</v>
       </c>
       <c r="E21">
-        <v>1.041948110184311</v>
+        <v>0.9995452612769008</v>
       </c>
       <c r="F21">
-        <v>1.057212735768086</v>
+        <v>1.020667503608315</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044292359656793</v>
+        <v>1.056047183214506</v>
       </c>
       <c r="J21">
-        <v>1.036994032109563</v>
+        <v>1.004634363624494</v>
       </c>
       <c r="K21">
-        <v>1.057615247592216</v>
+        <v>1.048060753112721</v>
       </c>
       <c r="L21">
-        <v>1.045506251551317</v>
+        <v>1.014535253947319</v>
       </c>
       <c r="M21">
-        <v>1.060715677015061</v>
+        <v>1.035267624824728</v>
       </c>
       <c r="N21">
-        <v>1.038466682580036</v>
+        <v>1.006061059654013</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.029597623411407</v>
+        <v>0.9697834464005399</v>
       </c>
       <c r="D22">
-        <v>1.053581992682888</v>
+        <v>1.03063574548928</v>
       </c>
       <c r="E22">
-        <v>1.041292164147916</v>
+        <v>0.996108635437508</v>
       </c>
       <c r="F22">
-        <v>1.056556872463546</v>
+        <v>1.017063361550126</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044139856396636</v>
+        <v>1.054699674446913</v>
       </c>
       <c r="J22">
-        <v>1.036475588479913</v>
+        <v>1.001909647020498</v>
       </c>
       <c r="K22">
-        <v>1.057224416911758</v>
+        <v>1.045623789492141</v>
       </c>
       <c r="L22">
-        <v>1.044980945273772</v>
+        <v>1.011757577194455</v>
       </c>
       <c r="M22">
-        <v>1.060188254923521</v>
+        <v>1.032304202944676</v>
       </c>
       <c r="N22">
-        <v>1.037947502700967</v>
+        <v>1.00333247363991</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.030005692483841</v>
+        <v>0.9720341926860708</v>
       </c>
       <c r="D23">
-        <v>1.053857392738006</v>
+        <v>1.032263597102005</v>
       </c>
       <c r="E23">
-        <v>1.041639886361202</v>
+        <v>0.9979388100178463</v>
       </c>
       <c r="F23">
-        <v>1.056904649916329</v>
+        <v>1.018983380089454</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044220942665708</v>
+        <v>1.055419193504807</v>
       </c>
       <c r="J23">
-        <v>1.036750463621228</v>
+        <v>1.003361319029359</v>
       </c>
       <c r="K23">
-        <v>1.057431831463246</v>
+        <v>1.046923241259488</v>
       </c>
       <c r="L23">
-        <v>1.045259476392976</v>
+        <v>1.013237449259516</v>
       </c>
       <c r="M23">
-        <v>1.060468006827774</v>
+        <v>1.033883597452214</v>
       </c>
       <c r="N23">
-        <v>1.038222768196511</v>
+        <v>1.004786207189533</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.031612565536357</v>
+        <v>0.9806565995020392</v>
       </c>
       <c r="D24">
-        <v>1.054938068347954</v>
+        <v>1.038491606920744</v>
       </c>
       <c r="E24">
-        <v>1.043008993838915</v>
+        <v>1.00496394871534</v>
       </c>
       <c r="F24">
-        <v>1.058271775554083</v>
+        <v>1.026339392493137</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044534814886503</v>
+        <v>1.058139236196115</v>
       </c>
       <c r="J24">
-        <v>1.037831770693574</v>
+        <v>1.008920142227376</v>
       </c>
       <c r="K24">
-        <v>1.058243346015743</v>
+        <v>1.051874881629336</v>
       </c>
       <c r="L24">
-        <v>1.046354777105322</v>
+        <v>1.018904449045587</v>
       </c>
       <c r="M24">
-        <v>1.061565912745285</v>
+        <v>1.03991922607804</v>
       </c>
       <c r="N24">
-        <v>1.039305610848927</v>
+        <v>1.010352924554097</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.033477982411851</v>
+        <v>0.9902122556302502</v>
       </c>
       <c r="D25">
-        <v>1.056184738979002</v>
+        <v>1.045370402252022</v>
       </c>
       <c r="E25">
-        <v>1.044598078726627</v>
+        <v>1.012773887333571</v>
       </c>
       <c r="F25">
-        <v>1.059853993820909</v>
+        <v>1.034487434332649</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044887927379103</v>
+        <v>1.061075529508365</v>
       </c>
       <c r="J25">
-        <v>1.039084803635248</v>
+        <v>1.015073566641881</v>
       </c>
       <c r="K25">
-        <v>1.059174553364572</v>
+        <v>1.057302983199909</v>
       </c>
       <c r="L25">
-        <v>1.047623212452533</v>
+        <v>1.025177089442708</v>
       </c>
       <c r="M25">
-        <v>1.062832798737458</v>
+        <v>1.046572968358816</v>
       </c>
       <c r="N25">
-        <v>1.040560423241103</v>
+        <v>1.016515087537078</v>
       </c>
     </row>
   </sheetData>
